--- a/target/classes/resources/testData/TestData.xlsx
+++ b/target/classes/resources/testData/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>data1</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Clinet/Client_EnhUser</t>
+  </si>
+  <si>
+    <t>Client_User</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +737,17 @@
         <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -752,6 +766,7 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/resources/testData/TestData.xlsx
+++ b/target/classes/resources/testData/TestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsingh\Frameworks\Selenium_ECP_VW\src\main\java\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="client" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>data1</t>
   </si>
@@ -245,6 +241,12 @@
   </si>
   <si>
     <t>Client_User</t>
+  </si>
+  <si>
+    <t>vwqng2</t>
+  </si>
+  <si>
+    <t>hari_admin1</t>
   </si>
 </sst>
 </file>
@@ -573,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +750,17 @@
         <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -767,6 +780,7 @@
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
